--- a/Resources/City_List.xlsx
+++ b/Resources/City_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petef\Google Drive\Data Work\project1\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE55B274-46C1-430B-8D6A-82AEC9EC1C39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC70D53-ACE6-4ADB-920A-206629316631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AQ_and_health" sheetId="1" r:id="rId1"/>
@@ -1207,17 +1207,18 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>545852</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -1268,7 +1269,7 @@
         <v>291826</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>420003</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>790390</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>347483</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>620961</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>229493</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>212237</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1387,7 +1388,7 @@
         <v>617594</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>261310</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>731424</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>2695598</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1455,7 +1456,7 @@
         <v>296943</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>396815</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>416427</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>787033</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>305215</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>1197816</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>600158</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>713777</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1591,7 +1592,7 @@
         <v>228330</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>253691</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>494665</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>269666</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1653,13 +1654,13 @@
         <v>21</v>
       </c>
       <c r="D26">
-        <v>15003</v>
+        <v>71550</v>
       </c>
       <c r="E26" s="2">
         <v>953207</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>2099451</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1693,7 +1694,7 @@
         <v>820445</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>821784</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>459787</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>583756</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1761,7 +1762,7 @@
         <v>295803</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>258379</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>3792621</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>597337</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>229573</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>233209</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>646889</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>399457</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1897,7 +1898,7 @@
         <v>594833</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>382578</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>103</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>205764</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -1948,7 +1949,7 @@
         <v>601222</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>343829</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>8175133</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>579999</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>69</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>408958</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>238300</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2050,7 +2051,7 @@
         <v>1526006</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>1445632</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>305704</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>583776</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -2118,7 +2119,7 @@
         <v>403892</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>225221</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>210565</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2169,7 +2170,7 @@
         <v>466488</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>1327407</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>1307402</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2220,7 +2221,7 @@
         <v>805235</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>608660</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>41</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>208916</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>319294</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>291707</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>335709</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>287208</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>520116</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -2356,7 +2357,7 @@
         <v>391906</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>437994</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>601723</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -2407,7 +2408,7 @@
         <v>382368</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>30</v>
       </c>
